--- a/data/trans_orig/P70C1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70C1_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CF46128-2BA0-4E73-BB75-05722D15DC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6A57C45-86F7-4176-8A24-9BFABFD740DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CAE28B23-7F5F-44AA-8CD0-13FD70F001BB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{89CFF38F-C45A-472A-9511-5F8DD582809B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="227">
   <si>
     <t>Población según si vuelven demasiado cansados a casa como para hacer las tareas domésticas necesarias en 2023 (Tasa respuesta: 42,45%)</t>
   </si>
@@ -74,628 +74,646 @@
     <t>27,14%</t>
   </si>
   <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>Con menos frecuencia /raramente</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>Varias veces al año</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>Varias veces al mes</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>Varias veces a la semana</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
     <t>19,82%</t>
   </si>
   <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>Con menos frecuencia /raramente</t>
-  </si>
-  <si>
-    <t>21,81%</t>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
   </si>
   <si>
     <t>14,59%</t>
   </si>
   <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>Varias veces al año</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
   </si>
   <si>
     <t>18,21%</t>
   </si>
   <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>Varias veces al mes</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>Varias veces a la semana</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
     <t>13,74%</t>
   </si>
   <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
+    <t>11,62%</t>
   </si>
   <si>
     <t>16,58%</t>
   </si>
   <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
   </si>
   <si>
     <t>15,02%</t>
   </si>
   <si>
-    <t>13,53%</t>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
   </si>
   <si>
     <t>5,89%</t>
   </si>
   <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
   </si>
   <si>
     <t>9,96%</t>
   </si>
   <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
   </si>
   <si>
     <t>7,72%</t>
   </si>
   <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1110,7 +1128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A01D48-FD8C-411D-B647-95720A16F225}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36196FB-BAB2-463E-B2CD-573FE1B4DD9D}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1519,13 +1537,13 @@
         <v>27932</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1540,13 +1558,13 @@
         <v>134037</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H10" s="7">
         <v>122</v>
@@ -1555,13 +1573,13 @@
         <v>89326</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>263</v>
@@ -1570,18 +1588,18 @@
         <v>223363</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -1593,13 +1611,13 @@
         <v>374962</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H11" s="7">
         <v>282</v>
@@ -1608,10 +1626,10 @@
         <v>228904</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>76</v>
@@ -1695,13 +1713,13 @@
         <v>145630</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>163</v>
@@ -1710,13 +1728,13 @@
         <v>119060</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>313</v>
@@ -1725,13 +1743,13 @@
         <v>264690</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1746,13 +1764,13 @@
         <v>221978</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>211</v>
@@ -1761,13 +1779,13 @@
         <v>154840</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>411</v>
@@ -1776,13 +1794,13 @@
         <v>376818</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1797,13 +1815,13 @@
         <v>206646</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H15" s="7">
         <v>201</v>
@@ -1812,13 +1830,13 @@
         <v>159085</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M15" s="7">
         <v>369</v>
@@ -1827,13 +1845,13 @@
         <v>365732</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1848,13 +1866,13 @@
         <v>73353</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H16" s="7">
         <v>142</v>
@@ -1863,13 +1881,13 @@
         <v>106481</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M16" s="7">
         <v>211</v>
@@ -1878,13 +1896,13 @@
         <v>179834</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1899,13 +1917,13 @@
         <v>1235054</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H17" s="7">
         <v>1263</v>
@@ -1914,13 +1932,13 @@
         <v>941402</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M17" s="7">
         <v>2356</v>
@@ -1929,18 +1947,18 @@
         <v>2176456</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -1952,13 +1970,13 @@
         <v>194462</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>224</v>
@@ -1967,13 +1985,13 @@
         <v>167954</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>408</v>
@@ -1982,13 +2000,13 @@
         <v>362416</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2003,13 +2021,13 @@
         <v>98114</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>149</v>
@@ -2018,13 +2036,13 @@
         <v>93557</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>247</v>
@@ -2033,13 +2051,13 @@
         <v>191671</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2054,13 +2072,13 @@
         <v>47729</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>65</v>
@@ -2069,13 +2087,13 @@
         <v>42100</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>112</v>
@@ -2084,13 +2102,13 @@
         <v>89829</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2105,13 +2123,13 @@
         <v>72590</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H21" s="7">
         <v>86</v>
@@ -2120,13 +2138,13 @@
         <v>68884</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="M21" s="7">
         <v>149</v>
@@ -2135,13 +2153,13 @@
         <v>141473</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2156,13 +2174,13 @@
         <v>30530</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="H22" s="7">
         <v>86</v>
@@ -2171,13 +2189,13 @@
         <v>71255</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="M22" s="7">
         <v>112</v>
@@ -2186,13 +2204,13 @@
         <v>101785</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2207,13 +2225,13 @@
         <v>21738</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="H23" s="7">
         <v>39</v>
@@ -2222,13 +2240,13 @@
         <v>28249</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M23" s="7">
         <v>57</v>
@@ -2237,13 +2255,13 @@
         <v>49987</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2258,13 +2276,13 @@
         <v>465162</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H24" s="7">
         <v>649</v>
@@ -2273,13 +2291,13 @@
         <v>471999</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M24" s="7">
         <v>1085</v>
@@ -2288,13 +2306,13 @@
         <v>937162</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2311,13 +2329,13 @@
         <v>605797</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>542</v>
@@ -2326,13 +2344,13 @@
         <v>420575</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>1067</v>
@@ -2341,13 +2359,13 @@
         <v>1026372</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2362,13 +2380,13 @@
         <v>339832</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>423</v>
@@ -2377,13 +2395,13 @@
         <v>274469</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>757</v>
@@ -2392,13 +2410,13 @@
         <v>614301</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2413,13 +2431,13 @@
         <v>208300</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="H27" s="7">
         <v>243</v>
@@ -2431,10 +2449,10 @@
         <v>37</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M27" s="7">
         <v>454</v>
@@ -2443,13 +2461,13 @@
         <v>380041</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2464,13 +2482,13 @@
         <v>320301</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H28" s="7">
         <v>319</v>
@@ -2479,13 +2497,13 @@
         <v>237070</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="M28" s="7">
         <v>607</v>
@@ -2494,13 +2512,13 @@
         <v>557371</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>53</v>
+        <v>206</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2515,13 +2533,13 @@
         <v>251955</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H29" s="7">
         <v>314</v>
@@ -2530,13 +2548,13 @@
         <v>249188</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M29" s="7">
         <v>526</v>
@@ -2545,13 +2563,13 @@
         <v>501143</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,13 +2584,13 @@
         <v>108068</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="H30" s="7">
         <v>193</v>
@@ -2581,13 +2599,13 @@
         <v>149685</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M30" s="7">
         <v>293</v>
@@ -2596,13 +2614,13 @@
         <v>257753</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,13 +2635,13 @@
         <v>1834253</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H31" s="7">
         <v>2034</v>
@@ -2632,13 +2650,13 @@
         <v>1502727</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M31" s="7">
         <v>3704</v>
@@ -2647,18 +2665,18 @@
         <v>3336980</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70C1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70C1_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6A57C45-86F7-4176-8A24-9BFABFD740DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12326E1F-9D14-4ADF-A172-28E76F5811ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{89CFF38F-C45A-472A-9511-5F8DD582809B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{958B36E9-9019-4F5E-BBEF-E86B59ACF07B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1128,7 +1128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36196FB-BAB2-463E-B2CD-573FE1B4DD9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14F8D47-022C-4B70-9C31-CFD6F9982576}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70C1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70C1_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12326E1F-9D14-4ADF-A172-28E76F5811ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7DCA336-CF78-4E96-A4C7-D4973D15B261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{958B36E9-9019-4F5E-BBEF-E86B59ACF07B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C7EB4581-5C74-4AF8-B166-556015F229E5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="221">
   <si>
     <t>Población según si vuelven demasiado cansados a casa como para hacer las tareas domésticas necesarias en 2023 (Tasa respuesta: 42,45%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>27,14%</t>
   </si>
   <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
   </si>
   <si>
     <t>26,55%</t>
   </si>
   <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
   </si>
   <si>
     <t>26,9%</t>
   </si>
   <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
   </si>
   <si>
     <t>Con menos frecuencia /raramente</t>
@@ -104,616 +104,598 @@
     <t>21,81%</t>
   </si>
   <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
   </si>
   <si>
     <t>8,82%</t>
   </si>
   <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
   </si>
   <si>
     <t>16,62%</t>
   </si>
   <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>Varias veces al año</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>Varias veces al mes</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>Varias veces a la semana</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
     <t>11,68%</t>
   </si>
   <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>Varias veces al año</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>Varias veces al mes</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>Varias veces a la semana</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
+    <t>15,72%</t>
   </si>
   <si>
     <t>16,58%</t>
   </si>
   <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
   </si>
   <si>
     <t>15,02%</t>
   </si>
   <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
+    <t>13,53%</t>
   </si>
   <si>
     <t>5,89%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
   </si>
   <si>
     <t>9,96%</t>
   </si>
   <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
   </si>
   <si>
     <t>7,72%</t>
   </si>
   <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1128,7 +1110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14F8D47-022C-4B70-9C31-CFD6F9982576}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5D60BE-13DC-4D07-A3C1-B8FB9B23552B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1537,13 +1519,13 @@
         <v>27932</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1558,13 +1540,13 @@
         <v>134037</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="7">
         <v>122</v>
@@ -1573,13 +1555,13 @@
         <v>89326</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M10" s="7">
         <v>263</v>
@@ -1588,18 +1570,18 @@
         <v>223363</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -1611,13 +1593,13 @@
         <v>374962</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H11" s="7">
         <v>282</v>
@@ -1626,10 +1608,10 @@
         <v>228904</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>76</v>
@@ -1713,13 +1695,13 @@
         <v>145630</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>163</v>
@@ -1728,13 +1710,13 @@
         <v>119060</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>313</v>
@@ -1743,13 +1725,13 @@
         <v>264690</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1764,13 +1746,13 @@
         <v>221978</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>211</v>
@@ -1779,13 +1761,13 @@
         <v>154840</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>411</v>
@@ -1794,13 +1776,13 @@
         <v>376818</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1815,13 +1797,13 @@
         <v>206646</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H15" s="7">
         <v>201</v>
@@ -1830,13 +1812,13 @@
         <v>159085</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M15" s="7">
         <v>369</v>
@@ -1845,13 +1827,13 @@
         <v>365732</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1866,13 +1848,13 @@
         <v>73353</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H16" s="7">
         <v>142</v>
@@ -1881,13 +1863,13 @@
         <v>106481</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M16" s="7">
         <v>211</v>
@@ -1896,13 +1878,13 @@
         <v>179834</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1917,13 +1899,13 @@
         <v>1235054</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7">
         <v>1263</v>
@@ -1932,13 +1914,13 @@
         <v>941402</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M17" s="7">
         <v>2356</v>
@@ -1947,18 +1929,18 @@
         <v>2176456</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -1970,13 +1952,13 @@
         <v>194462</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>224</v>
@@ -1985,13 +1967,13 @@
         <v>167954</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>408</v>
@@ -2000,13 +1982,13 @@
         <v>362416</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2021,13 +2003,13 @@
         <v>98114</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>149</v>
@@ -2036,13 +2018,13 @@
         <v>93557</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>247</v>
@@ -2051,13 +2033,13 @@
         <v>191671</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2072,13 +2054,13 @@
         <v>47729</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H20" s="7">
         <v>65</v>
@@ -2087,13 +2069,13 @@
         <v>42100</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M20" s="7">
         <v>112</v>
@@ -2102,13 +2084,13 @@
         <v>89829</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2123,13 +2105,13 @@
         <v>72590</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H21" s="7">
         <v>86</v>
@@ -2138,13 +2120,13 @@
         <v>68884</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>157</v>
+        <v>34</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="M21" s="7">
         <v>149</v>
@@ -2153,13 +2135,13 @@
         <v>141473</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2174,13 +2156,13 @@
         <v>30530</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H22" s="7">
         <v>86</v>
@@ -2189,13 +2171,13 @@
         <v>71255</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>112</v>
@@ -2204,13 +2186,13 @@
         <v>101785</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2225,13 +2207,13 @@
         <v>21738</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="H23" s="7">
         <v>39</v>
@@ -2240,13 +2222,13 @@
         <v>28249</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>57</v>
@@ -2255,13 +2237,13 @@
         <v>49987</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2276,13 +2258,13 @@
         <v>465162</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H24" s="7">
         <v>649</v>
@@ -2291,13 +2273,13 @@
         <v>471999</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M24" s="7">
         <v>1085</v>
@@ -2306,13 +2288,13 @@
         <v>937162</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,13 +2311,13 @@
         <v>605797</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>542</v>
@@ -2344,13 +2326,13 @@
         <v>420575</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>1067</v>
@@ -2359,13 +2341,13 @@
         <v>1026372</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,13 +2362,13 @@
         <v>339832</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="H26" s="7">
         <v>423</v>
@@ -2395,13 +2377,13 @@
         <v>274469</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>757</v>
@@ -2410,13 +2392,13 @@
         <v>614301</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,13 +2413,13 @@
         <v>208300</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>188</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>243</v>
@@ -2449,10 +2431,10 @@
         <v>37</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>454</v>
@@ -2461,13 +2443,13 @@
         <v>380041</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,13 +2464,13 @@
         <v>320301</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H28" s="7">
         <v>319</v>
@@ -2497,13 +2479,13 @@
         <v>237070</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>607</v>
@@ -2512,13 +2494,13 @@
         <v>557371</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>206</v>
+        <v>53</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,13 +2515,13 @@
         <v>251955</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H29" s="7">
         <v>314</v>
@@ -2548,13 +2530,13 @@
         <v>249188</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M29" s="7">
         <v>526</v>
@@ -2563,13 +2545,13 @@
         <v>501143</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2584,13 +2566,13 @@
         <v>108068</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H30" s="7">
         <v>193</v>
@@ -2599,13 +2581,13 @@
         <v>149685</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="M30" s="7">
         <v>293</v>
@@ -2614,13 +2596,13 @@
         <v>257753</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2635,13 +2617,13 @@
         <v>1834253</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H31" s="7">
         <v>2034</v>
@@ -2650,13 +2632,13 @@
         <v>1502727</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M31" s="7">
         <v>3704</v>
@@ -2665,18 +2647,18 @@
         <v>3336980</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70C1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70C1_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7DCA336-CF78-4E96-A4C7-D4973D15B261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45CEE271-2E06-46F5-9359-6318EAD392D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C7EB4581-5C74-4AF8-B166-556015F229E5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9E490512-7569-46F7-BE5C-64356F02117B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="228">
   <si>
     <t>Población según si vuelven demasiado cansados a casa como para hacer las tareas domésticas necesarias en 2023 (Tasa respuesta: 42,45%)</t>
   </si>
@@ -71,631 +71,652 @@
     <t>Nunca/ casi nunca</t>
   </si>
   <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
   </si>
   <si>
     <t>Con menos frecuencia /raramente</t>
   </si>
   <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
   </si>
   <si>
     <t>Varias veces al año</t>
   </si>
   <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>Varias veces al mes</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>Varias veces a la semana</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
     <t>11,15%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>Varias veces al mes</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>Varias veces a la semana</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
   </si>
   <si>
     <t>16,92%</t>
   </si>
   <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1110,7 +1131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5D60BE-13DC-4D07-A3C1-B8FB9B23552B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C125C73-EA2E-4FB7-BAB1-3E3DF90BCD7A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1231,7 +1252,7 @@
         <v>42</v>
       </c>
       <c r="D4" s="7">
-        <v>36372</v>
+        <v>37223</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1246,7 +1267,7 @@
         <v>36</v>
       </c>
       <c r="I4" s="7">
-        <v>23717</v>
+        <v>22718</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1261,7 +1282,7 @@
         <v>78</v>
       </c>
       <c r="N4" s="7">
-        <v>60089</v>
+        <v>59941</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1282,7 +1303,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="7">
-        <v>29233</v>
+        <v>29775</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1297,7 +1318,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>7881</v>
+        <v>7145</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1312,7 +1333,7 @@
         <v>39</v>
       </c>
       <c r="N5" s="7">
-        <v>37114</v>
+        <v>36920</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1333,7 +1354,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="7">
-        <v>14942</v>
+        <v>14399</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1348,7 +1369,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="7">
-        <v>10581</v>
+        <v>9456</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1363,7 +1384,7 @@
         <v>29</v>
       </c>
       <c r="N6" s="7">
-        <v>25522</v>
+        <v>23855</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1384,7 +1405,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="7">
-        <v>25734</v>
+        <v>24400</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1399,7 +1420,7 @@
         <v>22</v>
       </c>
       <c r="I7" s="7">
-        <v>13346</v>
+        <v>12406</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1414,7 +1435,7 @@
         <v>47</v>
       </c>
       <c r="N7" s="7">
-        <v>39079</v>
+        <v>36805</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1435,7 +1456,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="7">
-        <v>14779</v>
+        <v>13796</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -1450,7 +1471,7 @@
         <v>27</v>
       </c>
       <c r="I8" s="7">
-        <v>18847</v>
+        <v>16635</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>54</v>
@@ -1465,7 +1486,7 @@
         <v>45</v>
       </c>
       <c r="N8" s="7">
-        <v>33626</v>
+        <v>30431</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
@@ -1486,7 +1507,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="7">
-        <v>12977</v>
+        <v>12344</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>61</v>
@@ -1501,7 +1522,7 @@
         <v>12</v>
       </c>
       <c r="I9" s="7">
-        <v>14955</v>
+        <v>12250</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>64</v>
@@ -1516,16 +1537,16 @@
         <v>25</v>
       </c>
       <c r="N9" s="7">
-        <v>27932</v>
+        <v>24594</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1537,51 +1558,51 @@
         <v>141</v>
       </c>
       <c r="D10" s="7">
-        <v>134037</v>
+        <v>131937</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H10" s="7">
         <v>122</v>
       </c>
       <c r="I10" s="7">
-        <v>89326</v>
+        <v>80609</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>263</v>
       </c>
       <c r="N10" s="7">
-        <v>223363</v>
+        <v>212546</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -1590,46 +1611,46 @@
         <v>299</v>
       </c>
       <c r="D11" s="7">
-        <v>374962</v>
+        <v>568634</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H11" s="7">
         <v>282</v>
       </c>
       <c r="I11" s="7">
-        <v>228904</v>
+        <v>295410</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M11" s="7">
         <v>581</v>
       </c>
       <c r="N11" s="7">
-        <v>603866</v>
+        <v>864044</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1641,46 +1662,46 @@
         <v>207</v>
       </c>
       <c r="D12" s="7">
-        <v>212485</v>
+        <v>202411</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H12" s="7">
         <v>264</v>
       </c>
       <c r="I12" s="7">
-        <v>173031</v>
+        <v>157378</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M12" s="7">
         <v>471</v>
       </c>
       <c r="N12" s="7">
-        <v>385516</v>
+        <v>359789</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1692,46 +1713,46 @@
         <v>150</v>
       </c>
       <c r="D13" s="7">
-        <v>145630</v>
+        <v>135534</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H13" s="7">
         <v>163</v>
       </c>
       <c r="I13" s="7">
-        <v>119060</v>
+        <v>106025</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M13" s="7">
         <v>313</v>
       </c>
       <c r="N13" s="7">
-        <v>264690</v>
+        <v>241559</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1743,46 +1764,46 @@
         <v>200</v>
       </c>
       <c r="D14" s="7">
-        <v>221978</v>
+        <v>208539</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H14" s="7">
         <v>211</v>
       </c>
       <c r="I14" s="7">
-        <v>154840</v>
+        <v>142868</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M14" s="7">
         <v>411</v>
       </c>
       <c r="N14" s="7">
-        <v>376818</v>
+        <v>351408</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1794,46 +1815,46 @@
         <v>168</v>
       </c>
       <c r="D15" s="7">
-        <v>206646</v>
+        <v>195653</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H15" s="7">
         <v>201</v>
       </c>
       <c r="I15" s="7">
-        <v>159085</v>
+        <v>144524</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M15" s="7">
         <v>369</v>
       </c>
       <c r="N15" s="7">
-        <v>365732</v>
+        <v>340177</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1845,46 +1866,46 @@
         <v>69</v>
       </c>
       <c r="D16" s="7">
-        <v>73353</v>
+        <v>70686</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H16" s="7">
         <v>142</v>
       </c>
       <c r="I16" s="7">
-        <v>106481</v>
+        <v>97524</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M16" s="7">
         <v>211</v>
       </c>
       <c r="N16" s="7">
-        <v>179834</v>
+        <v>168210</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1896,51 +1917,51 @@
         <v>1093</v>
       </c>
       <c r="D17" s="7">
-        <v>1235054</v>
+        <v>1381457</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H17" s="7">
         <v>1263</v>
       </c>
       <c r="I17" s="7">
-        <v>941402</v>
+        <v>943730</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M17" s="7">
         <v>2356</v>
       </c>
       <c r="N17" s="7">
-        <v>2176456</v>
+        <v>2325188</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -1949,46 +1970,46 @@
         <v>184</v>
       </c>
       <c r="D18" s="7">
-        <v>194462</v>
+        <v>190226</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>224</v>
       </c>
       <c r="I18" s="7">
-        <v>167954</v>
+        <v>160262</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>408</v>
       </c>
       <c r="N18" s="7">
-        <v>362416</v>
+        <v>350489</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2000,46 +2021,46 @@
         <v>98</v>
       </c>
       <c r="D19" s="7">
-        <v>98114</v>
+        <v>96880</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>149</v>
       </c>
       <c r="I19" s="7">
-        <v>93557</v>
+        <v>86045</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>247</v>
       </c>
       <c r="N19" s="7">
-        <v>191671</v>
+        <v>182925</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2051,46 +2072,46 @@
         <v>47</v>
       </c>
       <c r="D20" s="7">
-        <v>47729</v>
+        <v>44175</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>65</v>
       </c>
       <c r="I20" s="7">
-        <v>42100</v>
+        <v>38469</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>112</v>
       </c>
       <c r="N20" s="7">
-        <v>89829</v>
+        <v>82644</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2102,46 +2123,46 @@
         <v>63</v>
       </c>
       <c r="D21" s="7">
-        <v>72590</v>
+        <v>68857</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H21" s="7">
         <v>86</v>
       </c>
       <c r="I21" s="7">
-        <v>68884</v>
+        <v>61795</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M21" s="7">
         <v>149</v>
       </c>
       <c r="N21" s="7">
-        <v>141473</v>
+        <v>130653</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2153,46 +2174,46 @@
         <v>26</v>
       </c>
       <c r="D22" s="7">
-        <v>30530</v>
+        <v>29368</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H22" s="7">
         <v>86</v>
       </c>
       <c r="I22" s="7">
-        <v>71255</v>
+        <v>65236</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M22" s="7">
         <v>112</v>
       </c>
       <c r="N22" s="7">
-        <v>101785</v>
+        <v>94604</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2204,46 +2225,46 @@
         <v>18</v>
       </c>
       <c r="D23" s="7">
-        <v>21738</v>
+        <v>20119</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H23" s="7">
         <v>39</v>
       </c>
       <c r="I23" s="7">
-        <v>28249</v>
+        <v>26030</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M23" s="7">
         <v>57</v>
       </c>
       <c r="N23" s="7">
-        <v>49987</v>
+        <v>46150</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,46 +2276,46 @@
         <v>436</v>
       </c>
       <c r="D24" s="7">
-        <v>465162</v>
+        <v>449625</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H24" s="7">
         <v>649</v>
       </c>
       <c r="I24" s="7">
-        <v>471999</v>
+        <v>437839</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M24" s="7">
         <v>1085</v>
       </c>
       <c r="N24" s="7">
-        <v>937162</v>
+        <v>887464</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,46 +2329,46 @@
         <v>525</v>
       </c>
       <c r="D25" s="7">
-        <v>605797</v>
+        <v>796083</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>542</v>
       </c>
       <c r="I25" s="7">
-        <v>420575</v>
+        <v>478391</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>1067</v>
       </c>
       <c r="N25" s="7">
-        <v>1026372</v>
+        <v>1274474</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,46 +2380,46 @@
         <v>334</v>
       </c>
       <c r="D26" s="7">
-        <v>339832</v>
+        <v>329066</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>423</v>
       </c>
       <c r="I26" s="7">
-        <v>274469</v>
+        <v>250568</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="M26" s="7">
         <v>757</v>
       </c>
       <c r="N26" s="7">
-        <v>614301</v>
+        <v>579634</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,46 +2431,46 @@
         <v>211</v>
       </c>
       <c r="D27" s="7">
-        <v>208300</v>
+        <v>194108</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="H27" s="7">
         <v>243</v>
       </c>
       <c r="I27" s="7">
-        <v>171741</v>
+        <v>153950</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>37</v>
+        <v>196</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="M27" s="7">
         <v>454</v>
       </c>
       <c r="N27" s="7">
-        <v>380041</v>
+        <v>348058</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,46 +2482,46 @@
         <v>288</v>
       </c>
       <c r="D28" s="7">
-        <v>320301</v>
+        <v>301796</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="H28" s="7">
         <v>319</v>
       </c>
       <c r="I28" s="7">
-        <v>237070</v>
+        <v>217070</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="M28" s="7">
         <v>607</v>
       </c>
       <c r="N28" s="7">
-        <v>557371</v>
+        <v>518866</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>53</v>
+        <v>207</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,46 +2533,46 @@
         <v>212</v>
       </c>
       <c r="D29" s="7">
-        <v>251955</v>
+        <v>238817</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="H29" s="7">
         <v>314</v>
       </c>
       <c r="I29" s="7">
-        <v>249188</v>
+        <v>226395</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M29" s="7">
         <v>526</v>
       </c>
       <c r="N29" s="7">
-        <v>501143</v>
+        <v>465212</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,46 +2584,46 @@
         <v>100</v>
       </c>
       <c r="D30" s="7">
-        <v>108068</v>
+        <v>103150</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="H30" s="7">
         <v>193</v>
       </c>
       <c r="I30" s="7">
-        <v>149685</v>
+        <v>135805</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="M30" s="7">
         <v>293</v>
       </c>
       <c r="N30" s="7">
-        <v>257753</v>
+        <v>238954</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2614,51 +2635,51 @@
         <v>1670</v>
       </c>
       <c r="D31" s="7">
-        <v>1834253</v>
+        <v>1963020</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H31" s="7">
         <v>2034</v>
       </c>
       <c r="I31" s="7">
-        <v>1502727</v>
+        <v>1462179</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M31" s="7">
         <v>3704</v>
       </c>
       <c r="N31" s="7">
-        <v>3336980</v>
+        <v>3425198</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
